--- a/20230322_dcs0tdb6_apc2db.Done.xlsx
+++ b/20230322_dcs0tdb6_apc2db.Done.xlsx
@@ -7,16 +7,17 @@
     <workbookView xWindow="0" yWindow="0" windowWidth="14805" windowHeight="8010"/>
   </bookViews>
   <sheets>
-    <sheet name="INFO" sheetId="2" r:id="rId4"/>
-    <sheet name="OS" sheetId="3" r:id="rId5"/>
-    <sheet name="DB" sheetId="4" r:id="rId6"/>
+    <sheet name="Summary" sheetId="2" r:id="rId4"/>
+    <sheet name="INFO" sheetId="3" r:id="rId5"/>
+    <sheet name="OS" sheetId="4" r:id="rId6"/>
+    <sheet name="DB" sheetId="5" r:id="rId7"/>
   </sheets>
   <calcPr calcId="122211"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="103">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="112">
   <si>
     <t>数据库名称
 DB_UNIQUE_NAME</t>
@@ -269,13 +270,14 @@
 set msgsys:msginfo_msgssz=4096
 set msgsys:msginfo_msgtql=131072
 set msgsys:msginfo_msgseg=19712
-set rlim_fd_max=65536
+set rlim_fd_max=100
 set rlim_fd_cur=65536
 set zfs:zfs_arc_max=53687091200
 set disable_ism_large_pages=0xF4
 set vxfs:vx_maxlink = 65534
 set lwp_default_stksize=0xa000
 set rpcmod:svc_default_stksize=0xa000
+set panic_on_oops=1
 *************network parameter (root)*************
 57344
 57344
@@ -298,7 +300,7 @@
 set rlim_fd_max=65536
 set rlim_fd_cur=65536
 set zfs:zfs_arc_max=53687091200
-set disable_ism_large_pages=0xF4
+set disable_ism_large_pages=0xF1
 set vxfs:vx_maxlink = 65534
 set lwp_default_stksize=0xa000
 set rpcmod:svc_default_stksize=0xa000
@@ -1059,6 +1061,33 @@
 based on your maintenance schedule
 For further information review MOS document id 1393363.1
 --------------------------------------------------------------</t>
+  </si>
+  <si>
+    <t>检查类别</t>
+  </si>
+  <si>
+    <t>检查项</t>
+  </si>
+  <si>
+    <t>检查说明</t>
+  </si>
+  <si>
+    <t>检查结果(严重)</t>
+  </si>
+  <si>
+    <t>检查结果(一般),</t>
+  </si>
+  <si>
+    <t>检查结果(轻微)</t>
+  </si>
+  <si>
+    <t>OS</t>
+  </si>
+  <si>
+    <t>OSPARAMETER</t>
+  </si>
+  <si>
+    <t>查看主机内核参数配置情况22</t>
   </si>
 </sst>
 </file>
@@ -1427,6 +1456,63 @@
   </sheetViews>
   <cols>
     <col customWidth="true" max="1" min="1" width="22"/>
+    <col max="26" min="2" style="2" width="9.140625"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="s">
+        <v>103</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="s">
+        <v>109</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>77</v>
+      </c>
+    </row>
+  </sheetData>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane activePane="bottomLeft" state="frozen" topLeftCell="B3" xSplit="1" ySplit="2"/>
+    </sheetView>
+  </sheetViews>
+  <cols>
+    <col customWidth="true" max="1" min="1" width="22"/>
     <col customWidth="true" max="26" min="2" style="2" width="50"/>
   </cols>
   <sheetData>
@@ -2010,7 +2096,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <dimension ref="A1"/>
   <sheetViews>
@@ -2091,7 +2177,7 @@
       <c r="A3" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="B3" s="2" t="s">
+      <c r="B3" s="3" t="s">
         <v>78</v>
       </c>
       <c r="C3" s="2"/>
@@ -2441,7 +2527,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <dimension ref="A1"/>
   <sheetViews>

--- a/20230322_dcs0tdb6_apc2db.Done.xlsx
+++ b/20230322_dcs0tdb6_apc2db.Done.xlsx
@@ -277,7 +277,7 @@
 set vxfs:vx_maxlink = 65534
 set lwp_default_stksize=0xa000
 set rpcmod:svc_default_stksize=0xa000
-set panic_on_oops=1
+set panic_on_oops=0
 *************network parameter (root)*************
 57344
 57344
@@ -1087,7 +1087,7 @@
     <t>OSPARAMETER</t>
   </si>
   <si>
-    <t>查看主机内核参数配置情况22</t>
+    <t>查看主机内核参数配置情况</t>
   </si>
 </sst>
 </file>
